--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1301465.243502284</v>
+        <v>1318110.362805973</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.7684111183</v>
       </c>
     </row>
     <row r="8">
@@ -662,16 +664,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>186.9919489137623</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>100.6953652878804</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -786,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>117.9920762390807</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G5" t="n">
-        <v>108.0821413447029</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.97365353379637</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0.9634147202719892</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>196.9826481283071</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>23.81390751390914</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>326.5965936593291</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>164.2669889612819</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,16 +1454,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>33.16698036331756</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>25.12601747835514</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>72.73977835916811</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>141.6396260835076</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.641698770570716</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
@@ -1749,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>18.12022702288986</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.38816470214924</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>118.6954547790016</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2020,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.58838388982759</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>208.6031950382871</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>91.11625179762363</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>140.1681645779488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
@@ -2178,7 +2180,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>8.256174432631903</v>
       </c>
     </row>
     <row r="22">
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.4374641786401</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>312.9379844122245</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>48.07910535104474</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>181.7638782208678</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>18.12022702288997</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>73.36175976093783</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>163.4635173700635</v>
+        <v>219.4289645592174</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>108.7668093276099</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>147.3962661676074</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.914749732671</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -2837,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>14.4316510730555</v>
+        <v>54.16500865471473</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>87.3028380711265</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>86.8884866659437</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>177.9974450266852</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
-        <v>83.90917446589467</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.45727786104306</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>141.2209508291587</v>
+        <v>181.7638782208682</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3190,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30.44996741998441</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>219.4289645592171</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>215.7504881230069</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3357,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>31.75396101115345</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>119.8539223207773</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>194.4372490238413</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>109.1465918480604</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,16 +3590,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.98427584501924</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>152.6126646195841</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>74.38236437343569</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0.9005944815179645</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3837,7 +3839,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>43.5879255551197</v>
       </c>
       <c r="W42" t="n">
-        <v>177.8303931174259</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>30.44996741998445</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.2011370580395</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>92.35335504220166</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4068,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>156.1333365664932</v>
+        <v>12.85956499965932</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>12.35168551462429</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>765.0847836638613</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>765.0847836638613</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>570.28636612118</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>570.28636612118</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>570.28636612118</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>570.28636612118</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>341.056931913353</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878.2251822441752</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C6" t="n">
-        <v>703.7721529630483</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D6" t="n">
-        <v>554.837743301797</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
         <v>110.334904905842</v>
@@ -4656,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="7">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
         <v>233.7108255783361</v>
@@ -4841,13 +4843,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>636.6465793880363</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.402045381201</v>
+        <v>699.1632746234388</v>
       </c>
       <c r="C11" t="n">
-        <v>942.4395284407892</v>
+        <v>699.1632746234388</v>
       </c>
       <c r="D11" t="n">
-        <v>584.1738298340388</v>
+        <v>699.1632746234388</v>
       </c>
       <c r="E11" t="n">
-        <v>198.3855772357945</v>
+        <v>699.1632746234388</v>
       </c>
       <c r="F11" t="n">
-        <v>198.3855772357945</v>
+        <v>699.1632746234388</v>
       </c>
       <c r="G11" t="n">
-        <v>198.3855772357945</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>198.3855772357945</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V11" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W11" t="n">
-        <v>1311.402045381201</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="X11" t="n">
-        <v>1311.402045381201</v>
+        <v>699.1632746234388</v>
       </c>
       <c r="Y11" t="n">
-        <v>1311.402045381201</v>
+        <v>699.1632746234388</v>
       </c>
     </row>
     <row r="12">
@@ -5100,13 +5102,13 @@
         <v>442.9465309458916</v>
       </c>
       <c r="D12" t="n">
-        <v>409.4445305789042</v>
+        <v>442.9465309458916</v>
       </c>
       <c r="E12" t="n">
-        <v>250.2070755734487</v>
+        <v>283.7090759404361</v>
       </c>
       <c r="F12" t="n">
-        <v>250.2070755734487</v>
+        <v>137.1745179673211</v>
       </c>
       <c r="G12" t="n">
         <v>111.7947023326189</v>
@@ -5118,19 +5120,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H13" t="n">
         <v>32.45932575975218</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.927521786082</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C14" t="n">
-        <v>1237.927521786082</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.927521786082</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E14" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1237.927521786082</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V14" t="n">
-        <v>1237.927521786082</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W14" t="n">
-        <v>1237.927521786082</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.927521786082</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y14" t="n">
-        <v>1237.927521786082</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>536.9689116288025</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C15" t="n">
-        <v>536.9689116288025</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D15" t="n">
-        <v>388.0345019675513</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E15" t="n">
-        <v>228.7970469620957</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>228.7970469620957</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321104</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
         <v>1380.722538783602</v>
@@ -5382,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V15" t="n">
-        <v>791.2062683570041</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W15" t="n">
-        <v>536.9689116288025</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X15" t="n">
-        <v>536.9689116288025</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y15" t="n">
-        <v>536.9689116288025</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="C16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="E16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="F16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="G16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8860696601711</v>
+        <v>199.7544622051771</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>50.76258537883285</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
         <v>40.81344334191284</v>
@@ -5455,31 +5457,31 @@
         <v>361.24660160295</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.8860696601711</v>
+        <v>361.24660160295</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5519,10 +5521,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5546,19 +5548,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1088.658125761969</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1088.658125761969</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5619,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.966287987609</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W18" t="n">
-        <v>1573.487221477489</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X18" t="n">
-        <v>1365.635721271956</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.875422507002</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>45.17486504240631</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975218</v>
@@ -5695,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1038.797848090511</v>
+        <v>493.4584606775615</v>
       </c>
       <c r="C20" t="n">
-        <v>1038.797848090511</v>
+        <v>124.4959437371498</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>124.4959437371498</v>
       </c>
       <c r="E20" t="n">
-        <v>442.2992974737949</v>
+        <v>124.4959437371498</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2992974737949</v>
+        <v>124.4959437371498</v>
       </c>
       <c r="G20" t="n">
         <v>32.45932575975218</v>
@@ -5750,16 +5752,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5777,25 +5779,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1425.397688154633</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1425.397688154633</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1425.397688154633</v>
+        <v>880.0583007416833</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>905.3741555651432</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C21" t="n">
-        <v>730.9211262840162</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>581.9867166227649</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>422.7492616173094</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>281.1652569931186</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
@@ -5832,49 +5834,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U21" t="n">
-        <v>1394.763620525087</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V21" t="n">
-        <v>1159.611512293345</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W21" t="n">
-        <v>905.3741555651432</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X21" t="n">
-        <v>905.3741555651432</v>
+        <v>1166.214992640974</v>
       </c>
       <c r="Y21" t="n">
-        <v>905.3741555651432</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W22" t="n">
-        <v>72.05002336285366</v>
+        <v>1333.549117950648</v>
       </c>
       <c r="X22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C23" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>860.3576610034522</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>450.5176892894095</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>113.7092895765604</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="X23" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y23" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>389.1959433063021</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C24" t="n">
-        <v>389.1959433063021</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D24" t="n">
-        <v>240.2615336450509</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E24" t="n">
-        <v>81.02407863959536</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>81.02407863959536</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>81.02407863959536</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
         <v>32.45932575975218</v>
@@ -6069,22 +6071,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6093,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1254.561044051268</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V24" t="n">
-        <v>1019.408935819526</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W24" t="n">
-        <v>765.171579091324</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X24" t="n">
-        <v>765.171579091324</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y24" t="n">
-        <v>557.4112803263702</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144411</v>
+        <v>199.7544622051772</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144411</v>
+        <v>50.76258537883297</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>1368.281799781722</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.6875413069145</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D26" t="n">
         <v>32.45932575975219</v>
@@ -6227,25 +6229,25 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
         <v>1508.970645214178</v>
@@ -6254,22 +6256,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1146.287381371036</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="U26" t="n">
-        <v>1146.287381371036</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V26" t="n">
-        <v>1146.287381371036</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W26" t="n">
-        <v>1146.287381371036</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X26" t="n">
-        <v>1146.287381371036</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.287381371036</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C27" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D27" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E27" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
         <v>32.45932575975219</v>
@@ -6309,46 +6311,46 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L27" t="n">
-        <v>256.6067387278474</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321104</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S27" t="n">
-        <v>1513.100824020327</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1312.19781512582</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U27" t="n">
-        <v>1083.995147663298</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V27" t="n">
-        <v>848.8430394315556</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W27" t="n">
-        <v>594.605682703354</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X27" t="n">
-        <v>386.7541824978211</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.9938837328672</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1354.551979593545</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="C29" t="n">
-        <v>1354.551979593545</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D29" t="n">
-        <v>1354.551979593545</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E29" t="n">
-        <v>968.7637269953004</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F29" t="n">
-        <v>968.7637269953004</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812576</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684086</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975208</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919863</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V29" t="n">
-        <v>1354.551979593545</v>
+        <v>977.6777125729423</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.551979593545</v>
+        <v>977.6777125729423</v>
       </c>
       <c r="X29" t="n">
-        <v>1354.551979593545</v>
+        <v>977.6777125729423</v>
       </c>
       <c r="Y29" t="n">
-        <v>1354.551979593545</v>
+        <v>977.6777125729423</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.45932575975219</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975219</v>
@@ -6552,40 +6554,40 @@
         <v>729.6092173456784</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1534.78160306728</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1333.878594172773</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="U30" t="n">
-        <v>1105.675926710251</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="V30" t="n">
-        <v>870.5238184785085</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="W30" t="n">
-        <v>616.2864617503069</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="X30" t="n">
-        <v>408.4349615447741</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y30" t="n">
-        <v>200.6746627798202</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.82943156598952</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="C31" t="n">
-        <v>71.82943156598952</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="D31" t="n">
-        <v>71.82943156598952</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="E31" t="n">
-        <v>71.82943156598952</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="F31" t="n">
-        <v>71.82943156598952</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W31" t="n">
-        <v>71.82943156598952</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X31" t="n">
-        <v>71.82943156598952</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.82943156598952</v>
+        <v>1443.170888970756</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1232.826956011798</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="C32" t="n">
-        <v>863.8644390713862</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="D32" t="n">
-        <v>863.8644390713862</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="E32" t="n">
-        <v>863.8644390713862</v>
+        <v>863.7122771282855</v>
       </c>
       <c r="F32" t="n">
-        <v>454.0244673573434</v>
+        <v>453.8723054142426</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>44.03233370019973</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>44.03233370019973</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
@@ -6740,10 +6742,10 @@
         <v>1622.96628798761</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.96628798761</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y32" t="n">
-        <v>1232.826956011798</v>
+        <v>1249.50052972653</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
         <v>32.45932575975219</v>
@@ -6780,49 +6782,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313475</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>63.21686860822129</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1548.863500350299</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
       <c r="C35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
       <c r="D35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
       <c r="E35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
       <c r="F35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U35" t="n">
-        <v>984.7239825525655</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V35" t="n">
-        <v>984.7239825525655</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="W35" t="n">
-        <v>631.9553272824514</v>
+        <v>627.570502767516</v>
       </c>
       <c r="X35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
       <c r="Y35" t="n">
-        <v>631.9553272824514</v>
+        <v>254.1047445064361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>803.9870437653119</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="C36" t="n">
-        <v>629.5340144841849</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="D36" t="n">
-        <v>480.5996048229337</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E36" t="n">
-        <v>321.3621498174782</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F36" t="n">
-        <v>174.8275918443631</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G36" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082808</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1334.39948494499</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1334.39948494499</v>
       </c>
       <c r="V36" t="n">
-        <v>1387.814179755867</v>
+        <v>1099.247376713247</v>
       </c>
       <c r="W36" t="n">
-        <v>1387.814179755867</v>
+        <v>845.0100199850456</v>
       </c>
       <c r="X36" t="n">
-        <v>1179.962679550334</v>
+        <v>845.0100199850456</v>
       </c>
       <c r="Y36" t="n">
-        <v>972.20238078538</v>
+        <v>845.0100199850456</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7117,28 +7119,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>591.0778725088204</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T38" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U38" t="n">
-        <v>1032.3898425272</v>
+        <v>1426.565026347366</v>
       </c>
       <c r="V38" t="n">
-        <v>701.3269551836289</v>
+        <v>1095.502139003795</v>
       </c>
       <c r="W38" t="n">
-        <v>591.0778725088204</v>
+        <v>742.7334837336812</v>
       </c>
       <c r="X38" t="n">
-        <v>591.0778725088204</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="Y38" t="n">
-        <v>591.0778725088204</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.6600854869342</v>
+        <v>435.1821412749972</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
         <v>111.7947023326189</v>
@@ -7254,49 +7256,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026704</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1573.487221477489</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1573.487221477489</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1573.487221477489</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1573.487221477489</v>
+        <v>1019.009277265552</v>
       </c>
       <c r="V39" t="n">
-        <v>1573.487221477489</v>
+        <v>1019.009277265552</v>
       </c>
       <c r="W39" t="n">
-        <v>1573.487221477489</v>
+        <v>1019.009277265552</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.635721271956</v>
+        <v>811.157777060019</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.875422507002</v>
+        <v>603.3974782950652</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C40" t="n">
         <v>32.45932575975219</v>
@@ -7357,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758255</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758255</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V40" t="n">
-        <v>139.6199360758255</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>834.8212426942232</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C41" t="n">
-        <v>465.8587257538115</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D41" t="n">
-        <v>107.593027147061</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
-        <v>107.593027147061</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F41" t="n">
-        <v>107.593027147061</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
-        <v>107.593027147061</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975219</v>
@@ -7412,13 +7414,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.056596592137</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.056596592137</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1399.312676972904</v>
       </c>
       <c r="U41" t="n">
-        <v>834.8212426942232</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="V41" t="n">
-        <v>834.8212426942232</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="W41" t="n">
-        <v>834.8212426942232</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="X41" t="n">
-        <v>834.8212426942232</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="Y41" t="n">
-        <v>834.8212426942232</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>692.0102572406489</v>
+        <v>438.2218513866552</v>
       </c>
       <c r="C42" t="n">
-        <v>517.5572279595219</v>
+        <v>438.2218513866552</v>
       </c>
       <c r="D42" t="n">
-        <v>368.6228182982707</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E42" t="n">
-        <v>368.6228182982707</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F42" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668621</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.799553443796</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1455.464052945775</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.464052945775</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V42" t="n">
-        <v>1455.464052945775</v>
+        <v>1068.434843899879</v>
       </c>
       <c r="W42" t="n">
-        <v>1275.837393231204</v>
+        <v>814.197487171677</v>
       </c>
       <c r="X42" t="n">
-        <v>1067.985893025671</v>
+        <v>814.197487171677</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.2255942607169</v>
+        <v>606.4371884067232</v>
       </c>
     </row>
     <row r="43">
@@ -7546,22 +7548,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>330.489058754481</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>52.86451470726684</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975219</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>125.7455429740973</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7649,10 +7651,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7661,37 +7663,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U44" t="n">
-        <v>1146.385485300631</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V44" t="n">
-        <v>815.3225979570606</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W44" t="n">
-        <v>462.5539426869464</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y44" t="n">
-        <v>462.5539426869464</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>800.0311509215306</v>
+        <v>771.9123356732376</v>
       </c>
       <c r="C45" t="n">
-        <v>625.5781216404037</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="D45" t="n">
-        <v>476.6437119791524</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E45" t="n">
-        <v>317.4062569736969</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F45" t="n">
-        <v>170.8716990005819</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7725,22 +7727,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321101</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
         <v>1622.966287987609</v>
@@ -7749,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V45" t="n">
-        <v>1383.858286912085</v>
+        <v>1609.976828391994</v>
       </c>
       <c r="W45" t="n">
-        <v>1383.858286912085</v>
+        <v>1355.739471663792</v>
       </c>
       <c r="X45" t="n">
-        <v>1176.006786706552</v>
+        <v>1147.887971458259</v>
       </c>
       <c r="Y45" t="n">
-        <v>968.2464879415986</v>
+        <v>940.1276726933056</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="C46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975219</v>
@@ -7834,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="U46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="V46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="W46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="X46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.1392625228377</v>
+        <v>348.7701515881781</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9011,13 @@
         <v>86.93262649026377</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209744</v>
       </c>
       <c r="M15" t="n">
-        <v>362.3381572675153</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275543</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>391.3774455544766</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304796</v>
+        <v>92.88803957954774</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>351.7205150479948</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9959,19 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275541</v>
@@ -10200,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>270.4206501018629</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126418</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>270.4206501018626</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P39" t="n">
-        <v>104.7567089243584</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>447.9178485742655</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3143048004597</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>73.77211287831321</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>184.8055467452</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q45" t="n">
         <v>99.7381345027554</v>
@@ -23258,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>88.11691047120479</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.49248054928799</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,16 +23342,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>114.2780852013212</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>111.9022320300663</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>2.104484466239711</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>147.5019580580808</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>147.7767020638717</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>109.6588881535608</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>130.3865507378507</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,10 +23624,10 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>52.3388948030437</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>56.5522494385249</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>198.0222341697041</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>288.1805909627099</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>21.18181338303363</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23861,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>62.08409257158718</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="20">
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>146.0798465823959</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>323.5972523329103</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24017,7 +24019,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24057,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4.901047815435049</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>197.4265213446725</v>
       </c>
     </row>
     <row r="22">
@@ -24145,7 +24147,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>108.3071674310103</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
         <v>74.67247646141476</v>
@@ -24181,16 +24183,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>107.3220053319298</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>56.79311626624457</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24300,7 +24302,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>61.11151706156662</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
         <v>78.54202280713804</v>
@@ -24333,13 +24335,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>44.15676256702881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24379,13 +24381,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>56.55224943852478</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>213.1612385756532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24494,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>57.05296305297634</v>
+        <v>1.087515863822375</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24570,13 +24572,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>57.06040336380586</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>78.52437462028919</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.91723044926633</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>21.5793981957992</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3206073970794</v>
+        <v>273.5872498154202</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>78.52437462028925</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>112.005492139618</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>128.7502647990354</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>74.67247646141476</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>40.58720832540962</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
-        <v>330.8043296646392</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>176.3021916495269</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,13 +25046,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>84.69968995873785</v>
+        <v>44.15676256702835</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25129,10 +25131,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9428526967579</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>195.2845395713168</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>35.54802611406149</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25245,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.274288497268</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>79.04005648478439</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25359,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25366,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,10 +25408,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>56.86126521322706</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>240.0943768693526</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25476,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.59930865325627</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>73.30797616831254</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>68.56368370317318</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>180.4339941236784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25645,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>259.0579513422849</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>111.9550918641795</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25725,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>189.2126615943056</v>
       </c>
       <c r="W42" t="n">
-        <v>73.86459004349373</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7968536786434</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>127.3008210000413</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141475</v>
@@ -25880,10 +25882,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>95.40611446836826</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25956,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -26001,10 +26003,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>76.66725058293207</v>
+        <v>219.941022149766</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>47.75082525111449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26074,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>214.464580174687</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>510571.9963659976</v>
+        <v>510571.9963659979</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>510571.9963659976</v>
+        <v>510571.9963659979</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>510571.9963659976</v>
+        <v>510571.9963659973</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>510571.9963659974</v>
+        <v>510571.9963659972</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>510571.9963659973</v>
+        <v>510571.9963659978</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510571.9963659976</v>
+        <v>510571.9963659978</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>510571.9963659973</v>
+        <v>510571.9963659978</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>510571.9963659974</v>
+        <v>510571.9963659979</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510571.9963659975</v>
+        <v>510571.9963659973</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510571.9963659975</v>
+        <v>510571.9963659978</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>510571.9963659976</v>
+        <v>510571.9963659978</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,22 +26325,22 @@
         <v>245673.2316242975</v>
       </c>
       <c r="F2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="G2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="H2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="I2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="J2" t="n">
         <v>245673.2316242976</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>245673.2316242975</v>
-      </c>
-      <c r="K2" t="n">
-        <v>245673.2316242976</v>
       </c>
       <c r="L2" t="n">
         <v>245673.2316242975</v>
@@ -26353,7 +26355,7 @@
         <v>245673.2316242975</v>
       </c>
       <c r="P2" t="n">
-        <v>245673.2316242974</v>
+        <v>245673.2316242975</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26442,13 +26444,13 @@
         <v>8850.046967220573</v>
       </c>
       <c r="K4" t="n">
-        <v>8850.046967220573</v>
+        <v>8850.046967220575</v>
       </c>
       <c r="L4" t="n">
         <v>8850.046967220573</v>
       </c>
       <c r="M4" t="n">
-        <v>8850.046967220575</v>
+        <v>8850.046967220573</v>
       </c>
       <c r="N4" t="n">
         <v>8850.046967220573</v>
@@ -26479,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26500,7 +26502,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55555.67867285159</v>
+        <v>55555.67867285183</v>
       </c>
       <c r="C6" t="n">
-        <v>136325.1102043996</v>
+        <v>136325.1102043994</v>
       </c>
       <c r="D6" t="n">
         <v>136325.1102043995</v>
       </c>
       <c r="E6" t="n">
-        <v>42018.66161807266</v>
+        <v>42018.66161807267</v>
       </c>
       <c r="F6" t="n">
-        <v>208958.8317433195</v>
+        <v>208958.8317433194</v>
       </c>
       <c r="G6" t="n">
         <v>208958.8317433194</v>
@@ -26540,13 +26542,13 @@
         <v>208958.8317433194</v>
       </c>
       <c r="I6" t="n">
-        <v>208958.8317433194</v>
+        <v>208958.8317433193</v>
       </c>
       <c r="J6" t="n">
-        <v>145898.8891442131</v>
+        <v>145898.8891442132</v>
       </c>
       <c r="K6" t="n">
-        <v>208958.8317433195</v>
+        <v>208958.8317433193</v>
       </c>
       <c r="L6" t="n">
         <v>208958.8317433194</v>
@@ -26561,7 +26563,7 @@
         <v>208958.8317433193</v>
       </c>
       <c r="P6" t="n">
-        <v>208958.8317433193</v>
+        <v>208958.8317433194</v>
       </c>
     </row>
   </sheetData>
@@ -26811,19 +26813,19 @@
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O4" t="n">
         <v>405.7415719969023</v>
@@ -27382,16 +27384,16 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>199.2459897422912</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11.54007894861603</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>82.17265245574092</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G5" t="n">
-        <v>307.2205961704321</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.55953011607097</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.4816508443668</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>209.8933976134044</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>202.1274745670657</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q22" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636397</v>
       </c>
       <c r="M15" t="n">
-        <v>300.0857567541446</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
         <v>177.5326105223148</v>
@@ -35969,16 +35971,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>151.5924345187911</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36130,7 +36132,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>329.1250450411059</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36446,7 +36448,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>302.3746655144174</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>221.0748005682855</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790645</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37394,16 +37396,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>221.0748005682853</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,16 +37633,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P39" t="n">
-        <v>30.98459604604517</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
@@ -37868,16 +37870,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>398.5719990406881</v>
       </c>
       <c r="O42" t="n">
-        <v>179.7282553970212</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>122.5531462318294</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38111,7 +38113,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
